--- a/Diagramas/Bases de Datos/Diccionario de datos CER.xlsx
+++ b/Diagramas/Bases de Datos/Diccionario de datos CER.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\SENA\Cer-2061250\Diagramas\Bases de Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\Cer\ProyectoCer-2061250\Diagramas\Bases de Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C12FD0D-59E1-4D12-9399-DC414CC823D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1891636-5EFD-4D8A-AA7A-DBD12ADBB416}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{251344E8-6A38-46DB-B170-37C96F516329}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="97">
   <si>
     <t>Nota: Los campos en negrita son la clave primaria  y Foranea de las tablas.</t>
   </si>
@@ -155,33 +155,6 @@
     <t>Usuario para ingresar a la cuenta</t>
   </si>
   <si>
-    <t>Tbl_Super_Admin</t>
-  </si>
-  <si>
-    <t>Información de la cuenta del súper administrador</t>
-  </si>
-  <si>
-    <t>Id_Super_Admin</t>
-  </si>
-  <si>
-    <t>Nombre_Super_Admin</t>
-  </si>
-  <si>
-    <t>Usuario_Super_Admin</t>
-  </si>
-  <si>
-    <t>Clave1_Super_Admin</t>
-  </si>
-  <si>
-    <t>Clave2_Super_Admin</t>
-  </si>
-  <si>
-    <t>Número único de identificación del super administrador</t>
-  </si>
-  <si>
-    <t>Nombre completo del super administrador</t>
-  </si>
-  <si>
     <t>Tbl_Graficas</t>
   </si>
   <si>
@@ -299,22 +272,7 @@
     <t>Si</t>
   </si>
   <si>
-    <t>Tbl_Super_Admin_Graficas</t>
-  </si>
-  <si>
-    <t>Relación muchos a muchos entre la Tbl_Super_Admin y la Tbl_Graficas</t>
-  </si>
-  <si>
-    <t>FK - Tbl_Super_Admin Número único de identificación del super administrador</t>
-  </si>
-  <si>
     <t>FK - Tbl_Graficas Número único de identificación de la gráfica</t>
-  </si>
-  <si>
-    <t>Tbl_Super_Admin_Reportes</t>
-  </si>
-  <si>
-    <t>Relación muchos a muchos entre la Tbl_Super_Admin y la Tbl_Reportes</t>
   </si>
   <si>
     <t>Id_Reportes</t>
@@ -410,7 +368,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,8 +381,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -474,19 +438,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -501,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -513,17 +464,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -535,20 +489,164 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
+  <dxfs count="75">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -585,18 +683,114 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -619,21 +813,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -653,21 +832,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -687,21 +851,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -721,21 +870,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -755,126 +889,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -898,117 +912,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -1043,6 +946,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1062,6 +968,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1081,6 +990,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1097,75 +1009,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,210 +1024,168 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{975F7056-616B-4525-9E84-9DFF067C1309}" name="Tabla24" displayName="Tabla24" ref="A6:E13" totalsRowShown="0" headerRowDxfId="76" dataDxfId="93">
-  <autoFilter ref="A6:E13" xr:uid="{4E3DB8F4-FAD0-475D-B628-9196B48691F8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{25EB2BBD-2BBE-4A00-9573-5263463E07C4}" name="Tabla243456789131516" displayName="Tabla243456789131516" ref="A107:E109" totalsRowShown="0" headerRowDxfId="55">
+  <autoFilter ref="A107:E109" xr:uid="{33E2B5A6-3924-41E3-933E-707C838AB2EC}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8DE414DB-3122-4D27-AA1F-C7564FF5A4BC}" name="Campo" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{5C86D122-9B41-4326-912F-8EC0E7A013F9}" name="Tipo" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{B6E5F546-7962-424A-A308-2AF15AE6BA88}" name="Permite nulos" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{1A102276-C1C8-4D34-8E73-592496FFCC4A}" name="Identidad" dataDxfId="78"/>
-    <tableColumn id="5" xr3:uid="{F5C56C7A-0A65-45D9-B5A9-105C8E99B21B}" name="Descripción" dataDxfId="77"/>
+    <tableColumn id="1" xr3:uid="{86A20BE1-322C-4F02-B833-3F9692565721}" name="Campo" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{97CBF62A-804D-4C0A-987E-B6329CDDE227}" name="Tipo" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{B3918FEB-9BCE-4865-B9FB-A34CB8C16072}" name="Permite nulos" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{B2B1FF15-3878-4D99-8E76-60EE3A27109B}" name="Identidad" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{D41B1FED-B681-4AD9-B375-E3063EA9B478}" name="Descripción" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{1E4A3C9B-6807-4281-9945-AAD1523EB07F}" name="Tabla24345678911" displayName="Tabla24345678911" ref="A82:E84" totalsRowShown="0" headerRowDxfId="35">
-  <autoFilter ref="A82:E84" xr:uid="{E00DF598-121A-4346-A910-48346A1C74A0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E77D86FF-AFEE-4B83-A8B0-989E361EA5EA}" name="Tabla2434" displayName="Tabla2434" ref="A26:E33" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+  <autoFilter ref="A26:E33" xr:uid="{4E79748E-D58B-4811-9FA5-A9E139F21804}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8FA5B62E-4C22-4FC6-976C-B54D9FAA8F96}" name="Campo" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{8894654B-E7E6-4881-A5D6-64ADBC2F07AD}" name="Tipo" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{80F626F9-13E7-44E8-B3B2-1680AF7473E5}" name="Permite nulos" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{63A0A4D5-FAA3-4CFC-B33A-B5F23D7AB746}" name="Identidad" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{AD5D5F8A-389F-4A4C-BADB-1D3ECB1971F3}" name="Descripción" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{9A913255-EDB7-49E4-88CF-AF11039E303B}" name="Campo" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{EE0BDA4B-5294-4E87-B2F7-AB2C2BC7A4F3}" name="Tipo" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{F8D4685F-3D75-428D-A6DD-2ACBDBCABAD6}" name="Permite nulos" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{8A5FCB99-5CFE-4A39-8CC0-94EFDDE3572A}" name="Identidad" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A9E30256-A5A9-473F-A585-2DD3EC62B300}" name="Descripción" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{EE472002-EC31-463F-AFD9-A8FFC31AD026}" name="Tabla2434567891112" displayName="Tabla2434567891112" ref="A88:E90" totalsRowShown="0" headerRowDxfId="29">
-  <autoFilter ref="A88:E90" xr:uid="{F9093F6B-854E-4D54-A5C4-C0F482DCEF0F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{380F86A2-90A5-4E37-8EEE-CF4D3909EE94}" name="Tabla243" displayName="Tabla243" ref="A16:E22" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+  <autoFilter ref="A16:E22" xr:uid="{3C15D693-EECC-4310-8F02-67A1F5066DFA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{8DF1BDE4-3BD9-4968-BDC6-36AB4F1BECBF}" name="Campo" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{5BF02419-7E13-43A6-AA58-35B37D92CE18}" name="Tipo" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{462AFE6C-E784-4A4F-80A2-6A03AC6B7C50}" name="Permite nulos" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{2EFC2C3F-0909-40FB-93F4-809D6A69A833}" name="Identidad" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{CB42E974-A385-4F64-8C4F-77E1E9F361C1}" name="Descripción" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{E04009D9-8EF6-4C14-828B-5ACBBF0B8D60}" name="Campo" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C2FACEB8-D8A6-45B4-9D9B-4B2852E027D7}" name="Tipo" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{A18095CE-87F6-4BBD-9E11-67BEA5FE3C2B}" name="Permite nulos" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{AE276207-2BC7-4539-833F-95C8321A12E2}" name="Identidad" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E5F16987-E384-488C-8F04-431055A1E5BE}" name="Descripción" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1ACC8A42-AC29-4D0E-9DA1-975A27DB80E9}" name="Tabla24345678913" displayName="Tabla24345678913" ref="A94:E96" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A94:E96" xr:uid="{E3C0C81F-494E-4DB4-8393-D28885B47747}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{975F7056-616B-4525-9E84-9DFF067C1309}" name="Tabla24" displayName="Tabla24" ref="A6:E13" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+  <autoFilter ref="A6:E13" xr:uid="{4E3DB8F4-FAD0-475D-B628-9196B48691F8}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DE1B0454-C177-42AF-9BC0-19C7D6A008AE}" name="Campo" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{AD7CD28E-0771-4B78-8D7D-02AD64B79825}" name="Tipo" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{BF0036F5-7573-4DCC-81C5-778AE34C8F31}" name="Permite nulos" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{9118427A-5AF4-40C7-B52C-93024448EBE6}" name="Identidad" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{0FCE003F-709E-4322-A409-647915F97913}" name="Descripción" dataDxfId="18"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{88C84F2A-DBB5-41F0-A155-706708C6D0F5}" name="Tabla24345678914" displayName="Tabla24345678914" ref="A100:E102" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A100:E102" xr:uid="{7E5E5272-07F3-4CE6-9A2C-44BA78156F9B}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C04C0F94-7536-4EBA-83CC-6E72EA6D81C5}" name="Campo" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{CA1F0CCE-1ACC-40F7-BFEF-954C3E90C840}" name="Tipo" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{A0AFE49A-3C15-4CA0-A962-AB61C6D30280}" name="Permite nulos" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{97263BB7-639A-4A99-BEAC-2EC929F86D31}" name="Identidad" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{1DA8C62D-195B-40F2-B185-F1B01BEC1E66}" name="Descripción" dataDxfId="12"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{89DEDBE9-FCDF-42D3-80BC-3CC2C1DDDB9A}" name="Tabla2434567891315" displayName="Tabla2434567891315" ref="A106:E108" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A106:E108" xr:uid="{3302360B-003C-469D-8786-EB7E2367CC87}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4BE78126-5567-407D-8F0D-AD345EE9B952}" name="Campo" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{3456BB7D-0015-40C2-A3FC-5BD51D268409}" name="Tipo" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{082576A1-D64B-492E-A6B3-F8D97B60F6CF}" name="Permite nulos" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{24931039-F13F-4179-998B-7491C410E661}" name="Identidad" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{4A96D645-4CC2-438E-890F-B900E131228A}" name="Descripción" dataDxfId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{25EB2BBD-2BBE-4A00-9573-5263463E07C4}" name="Tabla243456789131516" displayName="Tabla243456789131516" ref="A112:E114" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A112:E114" xr:uid="{33E2B5A6-3924-41E3-933E-707C838AB2EC}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{86A20BE1-322C-4F02-B833-3F9692565721}" name="Campo" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{97CBF62A-804D-4C0A-987E-B6329CDDE227}" name="Tipo" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{B3918FEB-9BCE-4865-B9FB-A34CB8C16072}" name="Permite nulos" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{B2B1FF15-3878-4D99-8E76-60EE3A27109B}" name="Identidad" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{D41B1FED-B681-4AD9-B375-E3063EA9B478}" name="Descripción" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8DE414DB-3122-4D27-AA1F-C7564FF5A4BC}" name="Campo" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{5C86D122-9B41-4326-912F-8EC0E7A013F9}" name="Tipo" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B6E5F546-7962-424A-A308-2AF15AE6BA88}" name="Permite nulos" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{1A102276-C1C8-4D34-8E73-592496FFCC4A}" name="Identidad" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{F5C56C7A-0A65-45D9-B5A9-105C8E99B21B}" name="Descripción" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{380F86A2-90A5-4E37-8EEE-CF4D3909EE94}" name="Tabla243" displayName="Tabla243" ref="A16:E22" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
-  <autoFilter ref="A16:E22" xr:uid="{3C15D693-EECC-4310-8F02-67A1F5066DFA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{89DEDBE9-FCDF-42D3-80BC-3CC2C1DDDB9A}" name="Tabla2434567891315" displayName="Tabla2434567891315" ref="A101:E103" totalsRowShown="0" headerRowDxfId="61">
+  <autoFilter ref="A101:E103" xr:uid="{3302360B-003C-469D-8786-EB7E2367CC87}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E04009D9-8EF6-4C14-828B-5ACBBF0B8D60}" name="Campo" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{C2FACEB8-D8A6-45B4-9D9B-4B2852E027D7}" name="Tipo" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{A18095CE-87F6-4BBD-9E11-67BEA5FE3C2B}" name="Permite nulos" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{AE276207-2BC7-4539-833F-95C8321A12E2}" name="Identidad" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{E5F16987-E384-488C-8F04-431055A1E5BE}" name="Descripción" dataDxfId="71"/>
+    <tableColumn id="1" xr3:uid="{4BE78126-5567-407D-8F0D-AD345EE9B952}" name="Campo" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{3456BB7D-0015-40C2-A3FC-5BD51D268409}" name="Tipo" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{082576A1-D64B-492E-A6B3-F8D97B60F6CF}" name="Permite nulos" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{24931039-F13F-4179-998B-7491C410E661}" name="Identidad" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{4A96D645-4CC2-438E-890F-B900E131228A}" name="Descripción" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E77D86FF-AFEE-4B83-A8B0-989E361EA5EA}" name="Tabla2434" displayName="Tabla2434" ref="A26:E33" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
-  <autoFilter ref="A26:E33" xr:uid="{4E79748E-D58B-4811-9FA5-A9E139F21804}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{88C84F2A-DBB5-41F0-A155-706708C6D0F5}" name="Tabla24345678914" displayName="Tabla24345678914" ref="A95:E97" totalsRowShown="0" headerRowDxfId="62">
+  <autoFilter ref="A95:E97" xr:uid="{7E5E5272-07F3-4CE6-9A2C-44BA78156F9B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9A913255-EDB7-49E4-88CF-AF11039E303B}" name="Campo" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{EE0BDA4B-5294-4E87-B2F7-AB2C2BC7A4F3}" name="Tipo" dataDxfId="69"/>
-    <tableColumn id="3" xr3:uid="{F8D4685F-3D75-428D-A6DD-2ACBDBCABAD6}" name="Permite nulos" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{8A5FCB99-5CFE-4A39-8CC0-94EFDDE3572A}" name="Identidad" dataDxfId="67"/>
-    <tableColumn id="5" xr3:uid="{A9E30256-A5A9-473F-A585-2DD3EC62B300}" name="Descripción" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{C04C0F94-7536-4EBA-83CC-6E72EA6D81C5}" name="Campo" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{CA1F0CCE-1ACC-40F7-BFEF-954C3E90C840}" name="Tipo" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{A0AFE49A-3C15-4CA0-A962-AB61C6D30280}" name="Permite nulos" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{97263BB7-639A-4A99-BEAC-2EC929F86D31}" name="Identidad" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{1DA8C62D-195B-40F2-B185-F1B01BEC1E66}" name="Descripción" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0F2DBAB2-DD96-493F-8152-18D156E8C952}" name="Tabla24345" displayName="Tabla24345" ref="A37:E43" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
-  <autoFilter ref="A37:E43" xr:uid="{B2190038-7D32-4047-A417-A60A7D9E08E6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{1ACC8A42-AC29-4D0E-9DA1-975A27DB80E9}" name="Tabla24345678913" displayName="Tabla24345678913" ref="A82:E84" totalsRowShown="0" headerRowDxfId="63">
+  <autoFilter ref="A82:E84" xr:uid="{E3C0C81F-494E-4DB4-8393-D28885B47747}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{71EAB7E6-3FC3-46E2-92A6-BB021B4565F7}" name="Campo" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{81E49B0A-8690-4584-AF41-9401CD9403F4}" name="Tipo" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{4F6B27D1-68B7-4FBA-96BB-B498B894CC11}" name="Permite nulos" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{AE7674CC-C7EB-4916-B96F-D76A133E28C1}" name="Identidad" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{CFEAF882-C047-4CCA-AE5E-320A4E5251CB}" name="Descripción" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{DE1B0454-C177-42AF-9BC0-19C7D6A008AE}" name="Campo" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{AD7CD28E-0771-4B78-8D7D-02AD64B79825}" name="Tipo" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{BF0036F5-7573-4DCC-81C5-778AE34C8F31}" name="Permite nulos" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{9118427A-5AF4-40C7-B52C-93024448EBE6}" name="Identidad" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{0FCE003F-709E-4322-A409-647915F97913}" name="Descripción" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0B64BAD8-4020-4D92-8874-A0866C869E43}" name="Tabla243456" displayName="Tabla243456" ref="A46:E50" totalsRowShown="0" headerRowDxfId="86">
-  <autoFilter ref="A46:E50" xr:uid="{3A644FE1-F6DC-4F53-9159-3B09E23A834F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{02D97F02-92C8-419C-8FE8-0317FF2AC0FF}" name="Tabla24345678910" displayName="Tabla24345678910" ref="A75:E78" totalsRowShown="0" headerRowDxfId="64">
+  <autoFilter ref="A75:E78" xr:uid="{F2C5ED67-0B74-4AE5-B745-37D9EFEF6E8B}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{BDC5457B-4FB1-4E31-A1DE-36A1A61BDD50}" name="Campo" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{63821C23-591D-482F-9ABB-694F68A921BB}" name="Tipo" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{9EE9D162-76F3-4916-B327-A216D07A2FF0}" name="Permite nulos" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{D55405A5-089D-46D5-9067-02C206F098BD}" name="Identidad" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{0BA7F24D-B654-45CF-B5C6-CCDDD1DD5BBB}" name="Descripción" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{50F5006A-862F-4135-B418-86035F346ED8}" name="Campo" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{67AC94F4-B2D2-4F1E-9EEB-96A418D7121F}" name="Tipo" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{9E4566EB-0E56-4C98-8E8F-C4D2AD73602E}" name="Permite nulos" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{1F4D2999-7020-4556-8131-122B64A96E6C}" name="Identidad" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{5690863C-1AEC-4FF3-888A-1E5439115F8B}" name="Descripción" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D2C263C0-9FA5-4918-BED4-A829642A5155}" name="Tabla2434567" displayName="Tabla2434567" ref="A55:E59" totalsRowShown="0" headerRowDxfId="85">
-  <autoFilter ref="A55:E59" xr:uid="{41C64C5B-B3D4-477F-931E-FB737DED2554}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0E4E1576-2868-497D-999B-F7D2CF67241E}" name="Tabla243456789" displayName="Tabla243456789" ref="A69:E71" totalsRowShown="0" headerRowDxfId="65">
+  <autoFilter ref="A69:E71" xr:uid="{1C0F8508-9658-4AFC-9C84-C6DBC4B365AE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D05724C3-1957-42DA-8E4A-6D36D97BE5A4}" name="Campo" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{49E11D6E-CD01-468B-A149-D91963174BC1}" name="Tipo" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{CD8A6E0F-0862-43A5-9AD6-FD220553A248}" name="Permite nulos" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{19B543A0-14C1-4DEC-A56C-E3C41DA19E82}" name="Identidad" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{42A251CC-3632-4D50-A6AD-EE5E01BBA3F2}" name="Descripción" dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{E5C414A0-4CA8-48A6-B89D-AC399954AA4F}" name="Campo" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{F37D9EA6-1D29-4DFD-8034-AEE4F7977B4C}" name="Tipo" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{FF323E62-B20B-433A-8B44-633175715093}" name="Permite nulos" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{7D456503-8FC7-44FF-8C3C-AE095FA9F3BB}" name="Identidad" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{AB8C7FD6-C105-4192-AD6C-5EE6BCA3387A}" name="Descripción" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A6C40771-9789-405E-8F65-D8F5F91D0D16}" name="Tabla24345678" displayName="Tabla24345678" ref="A63:E65" totalsRowShown="0" headerRowDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A6C40771-9789-405E-8F65-D8F5F91D0D16}" name="Tabla24345678" displayName="Tabla24345678" ref="A63:E65" totalsRowShown="0" headerRowDxfId="66">
   <autoFilter ref="A63:E65" xr:uid="{D3854894-AEC3-46AC-A4E4-6247D54A671A}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{198B566F-8265-4335-AA99-7AC5E6FEE82C}" name="Campo" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{9BC70F8A-7A1D-420D-B697-AD7A6663AD07}" name="Tipo" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{954A7753-07C8-49EC-8F27-B7557BDBCFCD}" name="Permite nulos" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{E6B1C5C4-4466-466E-9C25-6B7F0CA83766}" name="Identidad" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{DEE4CB2A-EB2D-4B3F-846F-F118E89F912B}" name="Descripción" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{198B566F-8265-4335-AA99-7AC5E6FEE82C}" name="Campo" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{9BC70F8A-7A1D-420D-B697-AD7A6663AD07}" name="Tipo" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{954A7753-07C8-49EC-8F27-B7557BDBCFCD}" name="Permite nulos" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{E6B1C5C4-4466-466E-9C25-6B7F0CA83766}" name="Identidad" dataDxfId="26"/>
+    <tableColumn id="5" xr3:uid="{DEE4CB2A-EB2D-4B3F-846F-F118E89F912B}" name="Descripción" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{0E4E1576-2868-497D-999B-F7D2CF67241E}" name="Tabla243456789" displayName="Tabla243456789" ref="A69:E71" totalsRowShown="0" headerRowDxfId="83">
-  <autoFilter ref="A69:E71" xr:uid="{1C0F8508-9658-4AFC-9C84-C6DBC4B365AE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D2C263C0-9FA5-4918-BED4-A829642A5155}" name="Tabla2434567" displayName="Tabla2434567" ref="A55:E59" totalsRowShown="0" headerRowDxfId="67">
+  <autoFilter ref="A55:E59" xr:uid="{41C64C5B-B3D4-477F-931E-FB737DED2554}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E5C414A0-4CA8-48A6-B89D-AC399954AA4F}" name="Campo" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{F37D9EA6-1D29-4DFD-8034-AEE4F7977B4C}" name="Tipo" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{FF323E62-B20B-433A-8B44-633175715093}" name="Permite nulos" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{7D456503-8FC7-44FF-8C3C-AE095FA9F3BB}" name="Identidad" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{AB8C7FD6-C105-4192-AD6C-5EE6BCA3387A}" name="Descripción" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{D05724C3-1957-42DA-8E4A-6D36D97BE5A4}" name="Campo" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{49E11D6E-CD01-468B-A149-D91963174BC1}" name="Tipo" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{CD8A6E0F-0862-43A5-9AD6-FD220553A248}" name="Permite nulos" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{19B543A0-14C1-4DEC-A56C-E3C41DA19E82}" name="Identidad" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{42A251CC-3632-4D50-A6AD-EE5E01BBA3F2}" name="Descripción" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{02D97F02-92C8-419C-8FE8-0317FF2AC0FF}" name="Tabla24345678910" displayName="Tabla24345678910" ref="A75:E78" totalsRowShown="0" headerRowDxfId="82">
-  <autoFilter ref="A75:E78" xr:uid="{F2C5ED67-0B74-4AE5-B745-37D9EFEF6E8B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{0B64BAD8-4020-4D92-8874-A0866C869E43}" name="Tabla243456" displayName="Tabla243456" ref="A46:E50" totalsRowShown="0" headerRowDxfId="68">
+  <autoFilter ref="A46:E50" xr:uid="{3A644FE1-F6DC-4F53-9159-3B09E23A834F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{50F5006A-862F-4135-B418-86035F346ED8}" name="Campo" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{67AC94F4-B2D2-4F1E-9EEB-96A418D7121F}" name="Tipo" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{9E4566EB-0E56-4C98-8E8F-C4D2AD73602E}" name="Permite nulos" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{1F4D2999-7020-4556-8131-122B64A96E6C}" name="Identidad" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{5690863C-1AEC-4FF3-888A-1E5439115F8B}" name="Descripción" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{BDC5457B-4FB1-4E31-A1DE-36A1A61BDD50}" name="Campo" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{63821C23-591D-482F-9ABB-694F68A921BB}" name="Tipo" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{9EE9D162-76F3-4916-B327-A216D07A2FF0}" name="Permite nulos" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{D55405A5-089D-46D5-9067-02C206F098BD}" name="Identidad" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{0BA7F24D-B654-45CF-B5C6-CCDDD1DD5BBB}" name="Descripción" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1687,39 +1488,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF33036-2575-450B-A295-AEF47256F23E}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="7"/>
-    <col min="5" max="5" width="51.7109375" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="1" width="24.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="5"/>
+    <col min="5" max="5" width="51.7109375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -1732,10 +1533,10 @@
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="1"/>
       <c r="E4" s="3"/>
     </row>
@@ -1743,12 +1544,12 @@
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1883,17 +1684,17 @@
         <v>8</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="1"/>
       <c r="E14" s="3"/>
     </row>
@@ -1901,12 +1702,12 @@
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1995,7 +1796,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>7</v>
@@ -2041,17 +1842,17 @@
         <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="1"/>
       <c r="E24" s="3"/>
     </row>
@@ -2059,12 +1860,12 @@
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+      <c r="B25" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -2097,7 +1898,7 @@
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2114,12 +1915,12 @@
         <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>10</v>
@@ -2131,12 +1932,12 @@
         <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
@@ -2148,12 +1949,12 @@
         <v>8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>10</v>
@@ -2170,7 +1971,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
@@ -2187,7 +1988,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
@@ -2202,162 +2003,84 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="10"/>
+    <row r="35" spans="1:5" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="1"/>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>103</v>
-      </c>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="10"/>
+      <c r="B44" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="11"/>
       <c r="D44" s="1"/>
       <c r="E44" s="3"/>
     </row>
@@ -2365,12 +2088,12 @@
       <c r="A45" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
+      <c r="B45" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -2391,70 +2114,70 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>51</v>
+      <c r="A48" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2464,24 +2187,24 @@
       <c r="B51" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="6"/>
+      <c r="B53" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="7"/>
       <c r="D53" s="1"/>
       <c r="E53" s="3"/>
     </row>
@@ -2489,12 +2212,12 @@
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+      <c r="B54" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -2515,36 +2238,36 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>60</v>
+      <c r="A57" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2554,14 +2277,14 @@
       <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2571,24 +2294,24 @@
       <c r="B59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61" s="6"/>
+      <c r="B61" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="7"/>
       <c r="D61" s="1"/>
       <c r="E61" s="3"/>
     </row>
@@ -2596,12 +2319,12 @@
       <c r="A62" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B62" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="15"/>
+      <c r="B62" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
     </row>
     <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -2622,36 +2345,36 @@
     </row>
     <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
-        <v>73</v>
+      <c r="A65" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C65" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2659,10 +2382,10 @@
       <c r="A67" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="6"/>
+      <c r="B67" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="7"/>
       <c r="D67" s="1"/>
       <c r="E67" s="3"/>
     </row>
@@ -2670,12 +2393,12 @@
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="15"/>
+      <c r="B68" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
     </row>
     <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -2701,14 +2424,14 @@
       <c r="B70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2718,14 +2441,14 @@
       <c r="B71" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2733,10 +2456,10 @@
       <c r="A73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="6"/>
+      <c r="B73" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C73" s="7"/>
       <c r="D73" s="1"/>
       <c r="E73" s="3"/>
     </row>
@@ -2744,12 +2467,12 @@
       <c r="A74" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="15"/>
+      <c r="B74" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
     </row>
     <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -2770,36 +2493,36 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2809,37 +2532,37 @@
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C80" s="6"/>
+      <c r="B80" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="7"/>
       <c r="D80" s="1"/>
       <c r="E80" s="3"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B81" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
+      <c r="B81" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="10"/>
     </row>
     <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2860,418 +2583,271 @@
     </row>
     <row r="83" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="B93" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C93" s="7"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B87" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="15"/>
-    </row>
-    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="B94" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+    </row>
+    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B95" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C95" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="15"/>
-    </row>
-    <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="B99" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B99" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="15"/>
-    </row>
-    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="B100" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+    </row>
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D101" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E101" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C104" s="6"/>
-      <c r="D104" s="1"/>
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="B105" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B105" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="15"/>
-    </row>
-    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="B106" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+    </row>
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C107" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E107" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>8</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="1"/>
-      <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="15"/>
-    </row>
-    <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B111:E111"/>
+  <mergeCells count="19">
     <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B87:E87"/>
-    <mergeCell ref="B93:E93"/>
-    <mergeCell ref="B99:E99"/>
-    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B74:E74"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -3283,14 +2859,13 @@
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B100:E100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="15">
+  <tableParts count="12">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -3303,9 +2878,6 @@
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
-    <tablePart r:id="rId14"/>
-    <tablePart r:id="rId15"/>
-    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>